--- a/root_words.xlsx
+++ b/root_words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="14700"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="14700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
   <si>
     <t>영어 원어맵</t>
   </si>
@@ -124,13 +124,356 @@
   </si>
   <si>
     <t>carry</t>
+  </si>
+  <si>
+    <t>5 W and 1 H</t>
+  </si>
+  <si>
+    <t>Who?</t>
+  </si>
+  <si>
+    <t>What?</t>
+  </si>
+  <si>
+    <t>Where?</t>
+  </si>
+  <si>
+    <t>1. Who does it?</t>
+  </si>
+  <si>
+    <t>1. What to do?</t>
+  </si>
+  <si>
+    <t>1. Where to do it?</t>
+  </si>
+  <si>
+    <t>2. Who is doing it?</t>
+  </si>
+  <si>
+    <t>2. Whatis being done?</t>
+  </si>
+  <si>
+    <t>2. Where is it done?</t>
+  </si>
+  <si>
+    <t>3. Who should be doing it?</t>
+  </si>
+  <si>
+    <t>3. What should be done?</t>
+  </si>
+  <si>
+    <t>3. Where should it be done?</t>
+  </si>
+  <si>
+    <t>4. Who else can do it?</t>
+  </si>
+  <si>
+    <t>4. What else can be done?</t>
+  </si>
+  <si>
+    <t>4. Where else can it be done?</t>
+  </si>
+  <si>
+    <t>5. Who else should do it?</t>
+  </si>
+  <si>
+    <t>5. What else should be done?</t>
+  </si>
+  <si>
+    <t>5. Where else should it be done?</t>
+  </si>
+  <si>
+    <t>When?</t>
+  </si>
+  <si>
+    <t>Why?</t>
+  </si>
+  <si>
+    <t>How?</t>
+  </si>
+  <si>
+    <t>1. When to do it?</t>
+  </si>
+  <si>
+    <t>1. Why do you do it?</t>
+  </si>
+  <si>
+    <t>1. How to do it?</t>
+  </si>
+  <si>
+    <t>2. When is it done?</t>
+  </si>
+  <si>
+    <t>2. Why do it?</t>
+  </si>
+  <si>
+    <t>2. How is it done?</t>
+  </si>
+  <si>
+    <t>3. When should it be done?</t>
+  </si>
+  <si>
+    <t>3. Why do it there?</t>
+  </si>
+  <si>
+    <t>3. How should it be done?</t>
+  </si>
+  <si>
+    <t>4. What other time can it be done?</t>
+  </si>
+  <si>
+    <t>4. Why do it then?</t>
+  </si>
+  <si>
+    <t>4. Can this method be used in other area?</t>
+  </si>
+  <si>
+    <t>5. What other time should it be done?</t>
+  </si>
+  <si>
+    <t>5. Why do it that way?</t>
+  </si>
+  <si>
+    <t>5. Is there any other way to do it?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        is about?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       do you have to do?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Why</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         do you have to do?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Who</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         has to do?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> How</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         are you going to do?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How long</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do you have to do?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Where     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you have to submit?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly Schedule: </t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wendesday</t>
+  </si>
+  <si>
+    <t>Thuresday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturaday</t>
+  </si>
+  <si>
+    <t>Hr/Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         /        /</t>
+  </si>
+  <si>
+    <t>Sleeping</t>
+  </si>
+  <si>
+    <t>8-Hours Sleep</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>Specific</t>
+  </si>
+  <si>
+    <t>Measureable</t>
+  </si>
+  <si>
+    <t>Action-Oriented</t>
+  </si>
+  <si>
+    <t>Realistic</t>
+  </si>
+  <si>
+    <t>Time-Limited</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,16 +481,168 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -155,13 +650,455 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,24 +1631,786 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="24"/>
+    </row>
+    <row r="18" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="24"/>
+    </row>
+    <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="28"/>
+    </row>
+    <row r="20" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="24"/>
+    </row>
+    <row r="21" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="A44:F44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="79">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="59">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="66"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="68"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="61">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="66"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="62"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="68"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="61">
+        <v>0.375</v>
+      </c>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="66"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="62"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="68"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="61">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="66"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="62"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="68"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="61">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="66"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="62"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="68"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="70"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="64"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="72"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="63">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B20" s="70"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="70"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="64"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="72"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="63">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B22" s="70"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="70"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="64"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="72"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="63">
+        <v>0.625</v>
+      </c>
+      <c r="B24" s="70"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="70"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="64"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="72"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="63">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B26" s="70"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="70"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="64"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="72"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="63">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B28" s="70"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="70"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="64"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="72"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="57">
+        <v>0.75</v>
+      </c>
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="74"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="58"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="76"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="57">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="74"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="58"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="76"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="57">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="74"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="58"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="76"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="57">
+        <v>0.875</v>
+      </c>
+      <c r="B36" s="74"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="74"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="58"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="76"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="57">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B38" s="74"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="74"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="58"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="76"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="42">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="B40" s="44"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="44"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="43"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="46"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="42">
+        <v>0</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" s="50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="43"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="52"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="32"/>
+      <c r="H44" s="33"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/root_words.xlsx
+++ b/root_words.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="14700" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="14700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="110">
   <si>
     <t>영어 원어맵</t>
   </si>
@@ -468,12 +470,45 @@
   <si>
     <t>Time-Limited</t>
   </si>
+  <si>
+    <t>To Do List</t>
+  </si>
+  <si>
+    <t>1. Right After Wake Up</t>
+  </si>
+  <si>
+    <t>2. After Breakfast</t>
+  </si>
+  <si>
+    <t>3. After Come Home</t>
+  </si>
+  <si>
+    <t>4. After Dinner</t>
+  </si>
+  <si>
+    <t>5. Before Sleep</t>
+  </si>
+  <si>
+    <t>a.</t>
+  </si>
+  <si>
+    <t>b.</t>
+  </si>
+  <si>
+    <t>d.</t>
+  </si>
+  <si>
+    <t>c.</t>
+  </si>
+  <si>
+    <t>3. Before going to School</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +526,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -579,13 +621,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -641,8 +726,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -651,6 +760,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -784,6 +908,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -960,145 +1114,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="18" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1845,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="A44:F44"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,560 +2078,992 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="34" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="79">
+      <c r="A4" s="80">
         <v>0.20833333333333334</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="55"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
+      <c r="A6" s="43">
         <v>0.25</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="55" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="48"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="59">
+      <c r="A8" s="60">
         <v>0.29166666666666669</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="67"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="68"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="69"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="61">
+      <c r="A10" s="62">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="67"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="68"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="69"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="61">
+      <c r="A12" s="62">
         <v>0.375</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="68"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="69"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="61">
+      <c r="A14" s="62">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="68"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="69"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="61">
+      <c r="A16" s="62">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="67"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="68"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="69"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="63">
+      <c r="A18" s="64">
         <v>0.5</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="71"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="72"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="63">
+      <c r="A20" s="64">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="71"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="72"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="73"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="63">
+      <c r="A22" s="64">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="70"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="71"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="72"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="73"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="63">
+      <c r="A24" s="64">
         <v>0.625</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="71"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="72"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="63">
+      <c r="A26" s="64">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="70"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="71"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="72"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="73"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="63">
+      <c r="A28" s="64">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="70"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="71"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="72"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="73"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="57">
+      <c r="A30" s="58">
         <v>0.75</v>
       </c>
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="74"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="75"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="76"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="77"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="57">
+      <c r="A32" s="58">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="74"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="75"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="76"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="77"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="57">
+      <c r="A34" s="58">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="74"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="75"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="58"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="76"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="57">
+      <c r="A36" s="58">
         <v>0.875</v>
       </c>
-      <c r="B36" s="74"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="74"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="75"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="76"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="57">
+      <c r="A38" s="58">
         <v>0.91666666666666663</v>
       </c>
-      <c r="B38" s="74"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="74"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="75"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="58"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="76"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="77"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="42">
+      <c r="A40" s="43">
         <v>0.95833333333333337</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="44"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="45"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="43"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="46"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="47"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="42">
+      <c r="A42" s="43">
         <v>0</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="F42" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="G42" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="H42" s="50" t="s">
+      <c r="H42" s="51" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="52"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="53"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="80" t="s">
+      <c r="A44" s="81" t="s">
         <v>93</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="81" t="s">
+      <c r="C44" s="82" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="81" t="s">
+      <c r="E44" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="81" t="s">
+      <c r="F44" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="G44" s="32"/>
-      <c r="H44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="A1:B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="113.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="84"/>
+    </row>
+    <row r="2" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="83"/>
+    </row>
+    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="103"/>
+      <c r="B3" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="83"/>
+    </row>
+    <row r="4" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="103"/>
+      <c r="B4" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="83"/>
+    </row>
+    <row r="5" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="103"/>
+      <c r="B5" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="83"/>
+    </row>
+    <row r="6" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="110"/>
+      <c r="C6" s="83"/>
+    </row>
+    <row r="7" spans="1:3" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="103"/>
+      <c r="B7" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="83"/>
+    </row>
+    <row r="8" spans="1:3" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="103"/>
+      <c r="B8" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="83"/>
+    </row>
+    <row r="9" spans="1:3" s="31" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="103"/>
+      <c r="B9" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="83"/>
+    </row>
+    <row r="10" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="111" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="112"/>
+      <c r="C10" s="83"/>
+    </row>
+    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="103"/>
+      <c r="B11" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="83"/>
+    </row>
+    <row r="12" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="103"/>
+      <c r="B12" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="83"/>
+    </row>
+    <row r="13" spans="1:3" s="31" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="103"/>
+      <c r="B13" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="83"/>
+    </row>
+    <row r="14" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="114"/>
+      <c r="C14" s="83"/>
+    </row>
+    <row r="15" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="103"/>
+      <c r="B15" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="83"/>
+    </row>
+    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="103"/>
+      <c r="B16" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="83"/>
+    </row>
+    <row r="17" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="103"/>
+      <c r="B17" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="83"/>
+    </row>
+    <row r="18" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="103"/>
+      <c r="B18" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="83"/>
+    </row>
+    <row r="19" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="116"/>
+      <c r="C19" s="83"/>
+    </row>
+    <row r="20" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A20" s="103"/>
+      <c r="B20" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="83"/>
+    </row>
+    <row r="21" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="103"/>
+      <c r="B21" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="83"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="103"/>
+      <c r="B22" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="83"/>
+    </row>
+    <row r="23" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="103"/>
+      <c r="B23" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="83"/>
+    </row>
+    <row r="24" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="118"/>
+      <c r="C24" s="83"/>
+    </row>
+    <row r="25" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="103"/>
+      <c r="B25" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="83"/>
+    </row>
+    <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="103"/>
+      <c r="B26" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="83"/>
+    </row>
+    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="103"/>
+      <c r="B27" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="83"/>
+    </row>
+    <row r="28" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="119"/>
+      <c r="B28" s="120" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="83"/>
+    </row>
+    <row r="29" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="83"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="90" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="84"/>
+    </row>
+    <row r="2" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="85"/>
+    </row>
+    <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="86"/>
+      <c r="B3" s="87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="86"/>
+      <c r="B4" s="88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="31" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="86"/>
+      <c r="B5" s="88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="86"/>
+      <c r="B6" s="88" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="90"/>
+    </row>
+    <row r="8" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="86"/>
+      <c r="B8" s="87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="86"/>
+      <c r="B9" s="88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="31" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="86"/>
+      <c r="B10" s="88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="86"/>
+      <c r="B11" s="88" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="91"/>
+    </row>
+    <row r="13" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="86"/>
+      <c r="B13" s="87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="86"/>
+      <c r="B14" s="88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="31" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="86"/>
+      <c r="B15" s="88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="86"/>
+      <c r="B16" s="88" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="92"/>
+    </row>
+    <row r="18" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="86"/>
+      <c r="B18" s="87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="86"/>
+      <c r="B19" s="88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="86"/>
+      <c r="B20" s="88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="86"/>
+      <c r="B21" s="89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="93"/>
+    </row>
+    <row r="23" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="86"/>
+      <c r="B23" s="87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="86"/>
+      <c r="B24" s="88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="86"/>
+      <c r="B25" s="88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="86"/>
+      <c r="B26" s="89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="94"/>
+    </row>
+    <row r="28" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A28" s="86"/>
+      <c r="B28" s="87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A29" s="86"/>
+      <c r="B29" s="88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A30" s="86"/>
+      <c r="B30" s="88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="95"/>
+      <c r="B31" s="96" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>